--- a/artfynd/A 39825-2022.xlsx
+++ b/artfynd/A 39825-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>703230.3439029651</v>
+        <v>703230</v>
       </c>
       <c r="R2" t="n">
-        <v>7299262.248702347</v>
+        <v>7299262</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -793,6 +793,122 @@
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>111867419</v>
+      </c>
+      <c r="B3" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>703160</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7299375</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 39825-2022.xlsx
+++ b/artfynd/A 39825-2022.xlsx
@@ -683,7 +683,7 @@
         <v>111867750</v>
       </c>
       <c r="B2" t="n">
-        <v>90682</v>
+        <v>90816</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>111867419</v>
       </c>
       <c r="B3" t="n">
-        <v>90658</v>
+        <v>90792</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
